--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$B$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$100</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,6 +28,25 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,13 +90,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,548 +407,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="742Byry1nQ049esQ2ytep4RQ52wmsSCmk/QZdc6eXq2gpLnGqY5omWH1+UgWJh4td1lYOM9w00eiYhg4LQEyFA==" saltValue="UXKjACorE4F32CYEoYMFVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P7434kUd5PEAi1S2TuPw1V4Elq2CzGU+5hFuhGndCghKwU9ZFyffHUOU/PWW2fVyzORRYH4fWHq0AgX1FUNKmA==" saltValue="3CzVfLWPNcv/M1nVpc5vkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="0Q1lY+yf/FsegGn7OMnwxj82g78koYuu8t54ZsE7ecZ1bb5MmBW6/Yt3Ae+EEMqnEqiOSJ77PlavcOQXDTf2Qw==" saltValue="IpvtPy4c401mJIZuYsJl4Q==" spinCount="100000" sqref="A2:B101" name="区域1"/>
   </protectedRanges>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,8 +410,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -708,49 +708,103 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,14 +27,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,11 +93,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分值</t>
+    <t>ACD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,8 +477,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -429,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -448,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -459,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -470,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -481,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -492,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -503,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -514,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -525,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -536,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -546,9 +613,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="1">
         <v>2</v>
       </c>
@@ -558,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -569,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -579,9 +644,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="1">
         <v>2</v>
       </c>
@@ -591,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -602,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -613,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -624,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -635,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -646,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -657,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -668,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -679,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -690,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -701,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -711,9 +774,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="1">
         <v>2</v>
       </c>
@@ -723,7 +784,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -734,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -745,7 +806,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -756,7 +817,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -767,7 +828,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -778,7 +839,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -789,7 +850,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -800,346 +861,580 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P7434kUd5PEAi1S2TuPw1V4Elq2CzGU+5hFuhGndCghKwU9ZFyffHUOU/PWW2fVyzORRYH4fWHq0AgX1FUNKmA==" saltValue="3CzVfLWPNcv/M1nVpc5vkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4qjfF3EM2cDGv9XTvoV4tntNKlMKBeP6f1+mkh+JDZ944Ld1bqUUpThJ4Y76dQHnUn694wSnAAGiS9oRabCRzw==" saltValue="CUaJ2HkvDl1bZVLa+7GJcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="0Q1lY+yf/FsegGn7OMnwxj82g78koYuu8t54ZsE7ecZ1bb5MmBW6/Yt3Ae+EEMqnEqiOSJ77PlavcOQXDTf2Qw==" saltValue="IpvtPy4c401mJIZuYsJl4Q==" spinCount="100000" sqref="A2:B101" name="区域1"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只能单选" prompt="请录入答案" sqref="B2:B101">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只能单选" prompt="请录入答案" sqref="B101">
       <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="请选择" prompt="请录入答案" sqref="B2:B34">
+      <formula1>"A,B,C,D,AB,AC,AD,BC,BD,CD,ABC,ABD,ACD,BCD,ABCD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="请选择" prompt="请录入答案" sqref="B35:B100">
+      <formula1>"A,B,C,D,AB,AC,AD,BC,BD,CD,ABC,ABD,ACD,BCD,ABCD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$61</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -478,7 +478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C22"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1148,275 +1148,197 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
+      <c r="A83" s="1"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
+      <c r="A88" s="1"/>
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
+      <c r="A89" s="1"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
+      <c r="A93" s="1"/>
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
+      <c r="A96" s="1"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
+      <c r="A99" s="1"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
     </row>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -477,8 +477,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,11 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
@@ -53,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,34 +83,6 @@
   </si>
   <si>
     <t>ABCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +446,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -537,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -548,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -559,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -570,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -581,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -592,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -603,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -623,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -634,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -654,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -665,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -676,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -687,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -698,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -709,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -720,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -731,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -742,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -753,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -764,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -784,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -795,7 +764,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -806,7 +775,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -817,335 +786,161 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1">
-        <v>3</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,50 +39,6 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,8 +402,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -502,295 +458,139 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +420,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -432,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,56 +468,110 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$61</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,13 @@
   <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABD</t>
   </si>
 </sst>
 </file>
@@ -416,21 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,19 +449,25 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -462,8 +477,11 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -473,8 +491,11 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -484,8 +505,11 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -495,8 +519,11 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -506,8 +533,11 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -517,8 +547,11 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -528,8 +561,11 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -539,8 +575,11 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -550,8 +589,11 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -561,8 +603,11 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -572,18 +617,21 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
@@ -1009,7 +1057,7 @@
       <c r="C100" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4qjfF3EM2cDGv9XTvoV4tntNKlMKBeP6f1+mkh+JDZ944Ld1bqUUpThJ4Y76dQHnUn694wSnAAGiS9oRabCRzw==" saltValue="CUaJ2HkvDl1bZVLa+7GJcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WtEBcuxqjzvUaG55EPxrJlI9zJfPLIV2j4tESdyLxrIP0nvXHvnurSUrPPYnz/bG0D69AF86D3vOYDNm1nbxMg==" saltValue="bBeiruf837sNjHfXPJXEEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="0Q1lY+yf/FsegGn7OMnwxj82g78koYuu8t54ZsE7ecZ1bb5MmBW6/Yt3Ae+EEMqnEqiOSJ77PlavcOQXDTf2Qw==" saltValue="IpvtPy4c401mJIZuYsJl4Q==" spinCount="100000" sqref="A2:B101" name="区域1"/>
   </protectedRanges>

--- a/data/答案.xlsx
+++ b/data/答案.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,35 +27,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,7 +35,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ABD</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -427,7 +408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -447,10 +428,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D2" s="1">
         <v>1.5</v>
@@ -472,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -486,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -500,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -514,10 +495,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -528,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -542,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -556,10 +537,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -569,15 +550,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -587,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -598,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -615,16 +589,25 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
